--- a/excel/Quotazioni_Fantacalcio.xlsx
+++ b/excel/Quotazioni_Fantacalcio.xlsx
@@ -2715,7 +2715,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4998</v>
+        <v>4245</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2724,19 +2724,19 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Molina N.</t>
+          <t>Smalling</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G72" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2747,7 +2747,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4245</v>
+        <v>4409</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Smalling</t>
+          <t>Rrahmani</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -2779,7 +2779,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4409</v>
+        <v>4899</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2788,12 +2788,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Rrahmani</t>
+          <t>Singo</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -2811,7 +2811,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4899</v>
+        <v>4976</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2820,12 +2820,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Singo</t>
+          <t>Kalulu</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -2843,7 +2843,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4976</v>
+        <v>5885</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2852,12 +2852,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Kalulu</t>
+          <t>Dodo'</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -2875,7 +2875,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>5885</v>
+        <v>252</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Dodo'</t>
+          <t>Biraghi</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2893,10 +2893,10 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G77" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -2907,7 +2907,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>252</v>
+        <v>357</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2916,12 +2916,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Biraghi</t>
+          <t>Calabria</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -2939,7 +2939,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>357</v>
+        <v>581</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Calabria</t>
+          <t>Faraoni</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -2971,7 +2971,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>581</v>
+        <v>4332</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2980,12 +2980,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Faraoni</t>
+          <t>Demiral</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -3003,7 +3003,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4332</v>
+        <v>5355</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -3012,12 +3012,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Demiral</t>
+          <t>Udogie</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -3035,7 +3035,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>5355</v>
+        <v>5892</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Udogie</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -3067,7 +3067,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>5892</v>
+        <v>1852</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -3076,19 +3076,19 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Spinazzola</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G83" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1852</v>
+        <v>4237</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -3108,12 +3108,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Spinazzola</t>
+          <t>Danilo</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -3131,7 +3131,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4237</v>
+        <v>5332</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -3140,12 +3140,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Danilo</t>
+          <t>Bastoni S.</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -3163,7 +3163,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>5332</v>
+        <v>460</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -3172,19 +3172,19 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Bastoni S.</t>
+          <t>Romagnoli</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G86" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>460</v>
+        <v>554</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -3204,12 +3204,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Romagnoli</t>
+          <t>Zappacosta</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -3227,7 +3227,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>554</v>
+        <v>2164</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -3236,12 +3236,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Zappacosta</t>
+          <t>Milenkovic</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -3259,7 +3259,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2164</v>
+        <v>322</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -3268,19 +3268,19 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Milenkovic</t>
+          <t>De Vrij</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G89" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3291,7 +3291,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>322</v>
+        <v>2180</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -3300,12 +3300,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>De Vrij</t>
+          <t>Karsdorp</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -3323,7 +3323,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Karsdorp</t>
+          <t>Palomino</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -3355,7 +3355,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>2181</v>
+        <v>2263</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -3364,12 +3364,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Palomino</t>
+          <t>Lazzari</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -3387,7 +3387,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>2263</v>
+        <v>2296</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -3396,12 +3396,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Lazzari</t>
+          <t>Mancini</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -3419,7 +3419,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2296</v>
+        <v>4412</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -3428,12 +3428,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Mancini</t>
+          <t>Rodrigo Becao</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -3451,7 +3451,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4412</v>
+        <v>5675</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -3460,12 +3460,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Rodrigo Becao</t>
+          <t>Theate</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -3483,7 +3483,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>5675</v>
+        <v>142</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -3492,19 +3492,19 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Theate</t>
+          <t>Mario Rui</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G96" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>142</v>
+        <v>487</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -3524,12 +3524,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Mario Rui</t>
+          <t>De Silvestri</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -3547,7 +3547,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>487</v>
+        <v>2130</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -3556,12 +3556,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>De Silvestri</t>
+          <t>Hateboer</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -3579,7 +3579,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>2130</v>
+        <v>2525</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -3588,12 +3588,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Hateboer</t>
+          <t>Darmian</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -3611,7 +3611,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>2525</v>
+        <v>2784</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -3620,12 +3620,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Darmian</t>
+          <t>Colley</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -3643,7 +3643,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>2784</v>
+        <v>4331</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -3652,12 +3652,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Colley</t>
+          <t>Ibanez</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -3675,7 +3675,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4331</v>
+        <v>4407</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -3684,12 +3684,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Ibanez</t>
+          <t>Igor</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -3707,7 +3707,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4407</v>
+        <v>4982</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Igor</t>
+          <t>Erlic</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="F103" t="n">
@@ -3739,7 +3739,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4982</v>
+        <v>4994</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -3748,12 +3748,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Erlic</t>
+          <t>Vojvoda</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -3771,7 +3771,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4994</v>
+        <v>5498</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -3780,12 +3780,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Vojvoda</t>
+          <t>Casale</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="F105" t="n">
@@ -3803,7 +3803,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>5498</v>
+        <v>5520</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Casale</t>
+          <t>Cambiaso</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -3835,7 +3835,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>5520</v>
+        <v>253</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -3844,19 +3844,19 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Cambiaso</t>
+          <t>D'ambrosio</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G107" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>D'ambrosio</t>
+          <t>Dimarco</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3899,7 +3899,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>254</v>
+        <v>513</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Dimarco</t>
+          <t>Acerbi</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="F109" t="n">
@@ -3931,7 +3931,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>513</v>
+        <v>662</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -3940,12 +3940,12 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Acerbi</t>
+          <t>Alex Sandro</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F110" t="n">
@@ -3963,7 +3963,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>662</v>
+        <v>695</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -3972,12 +3972,12 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Alex Sandro</t>
+          <t>Toloi</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -3995,7 +3995,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>695</v>
+        <v>1895</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Toloi</t>
+          <t>Ferrari G.</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -4027,7 +4027,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1895</v>
+        <v>4887</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -4036,12 +4036,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Ferrari G.</t>
+          <t>Bellanova</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -4059,7 +4059,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4887</v>
+        <v>5375</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -4068,12 +4068,12 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Bellanova</t>
+          <t>Maehle</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F114" t="n">
@@ -4091,7 +4091,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>5375</v>
+        <v>5449</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Maehle</t>
+          <t>Parisi</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="F115" t="n">
@@ -4123,7 +4123,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>5449</v>
+        <v>5877</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -4132,12 +4132,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Parisi</t>
+          <t>Carlos Augusto</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="F116" t="n">
@@ -4155,7 +4155,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>5877</v>
+        <v>256</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -4164,19 +4164,19 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Carlos Augusto</t>
+          <t>Juan Jesus</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G117" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4187,7 +4187,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -4196,12 +4196,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Juan Jesus</t>
+          <t>Medel</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -4219,7 +4219,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>272</v>
+        <v>464</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -4228,12 +4228,12 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Medel</t>
+          <t>Florenzi</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="F119" t="n">
@@ -4251,7 +4251,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>464</v>
+        <v>787</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -4260,12 +4260,12 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Florenzi</t>
+          <t>Djimsiti</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F120" t="n">
@@ -4283,7 +4283,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>787</v>
+        <v>2169</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Djimsiti</t>
+          <t>Rodriguez R.</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="F121" t="n">
@@ -4315,7 +4315,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>2169</v>
+        <v>2188</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -4324,12 +4324,12 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Rodriguez R.</t>
+          <t>Marusic</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="F122" t="n">
@@ -4347,7 +4347,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>2188</v>
+        <v>2280</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -4356,12 +4356,12 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Marusic</t>
+          <t>Nuytinck</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F123" t="n">
@@ -4379,7 +4379,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>2280</v>
+        <v>4421</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Nuytinck</t>
+          <t>Augello</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="F124" t="n">
@@ -4411,7 +4411,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4421</v>
+        <v>4657</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -4420,12 +4420,12 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Augello</t>
+          <t>Celik</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F125" t="n">
@@ -4443,7 +4443,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4657</v>
+        <v>5450</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -4452,12 +4452,12 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Celik</t>
+          <t>Stojanovic</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="F126" t="n">
@@ -4475,7 +4475,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5450</v>
+        <v>5481</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Stojanovic</t>
+          <t>Mazzocchi</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="F127" t="n">
@@ -4507,7 +4507,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5481</v>
+        <v>5532</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Mazzocchi</t>
+          <t>Bradaric</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -4539,7 +4539,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5532</v>
+        <v>5686</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Bradaric</t>
+          <t>Soppy</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -4571,7 +4571,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5686</v>
+        <v>5750</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Soppy</t>
+          <t>Ostigard</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -4603,7 +4603,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5750</v>
+        <v>5840</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Ostigard</t>
+          <t>Olivera</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -4635,7 +4635,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5840</v>
+        <v>5856</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -4644,12 +4644,12 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Olivera</t>
+          <t>Sambia</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -4667,7 +4667,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5856</v>
+        <v>49</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -4676,19 +4676,19 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Sambia</t>
+          <t>Masina</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G133" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -4699,7 +4699,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -4708,12 +4708,12 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Masina</t>
+          <t>Hysaj</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="F134" t="n">
@@ -4731,7 +4731,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>140</v>
+        <v>261</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -4740,12 +4740,12 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Hysaj</t>
+          <t>Ranocchia</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="F135" t="n">
@@ -4763,7 +4763,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>261</v>
+        <v>358</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -4772,12 +4772,12 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Ranocchia</t>
+          <t>De Sciglio</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F136" t="n">
@@ -4795,7 +4795,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>358</v>
+        <v>1847</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -4804,12 +4804,12 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>De Sciglio</t>
+          <t>Caldara</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="F137" t="n">
@@ -4827,7 +4827,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1847</v>
+        <v>1891</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -4836,12 +4836,12 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Caldara</t>
+          <t>Ceccherini</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="F138" t="n">
@@ -4859,7 +4859,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1891</v>
+        <v>2016</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Ceccherini</t>
+          <t>Fazio</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="F139" t="n">
@@ -4891,7 +4891,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>2016</v>
+        <v>2104</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -4900,12 +4900,12 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Fazio</t>
+          <t>Bereszynski</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="F140" t="n">
@@ -4923,7 +4923,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>2104</v>
+        <v>4530</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -4932,12 +4932,12 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Bereszynski</t>
+          <t>Kyriakopoulos</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="F141" t="n">
@@ -4955,7 +4955,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4530</v>
+        <v>4934</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Kyriakopoulos</t>
+          <t>Lovato</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="F142" t="n">
@@ -4987,7 +4987,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4934</v>
+        <v>5475</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -4996,12 +4996,12 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Lovato</t>
+          <t>Amian</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="F143" t="n">
@@ -5019,7 +5019,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5475</v>
+        <v>5514</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -5028,12 +5028,12 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Amian</t>
+          <t>Vasquez</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="F144" t="n">
@@ -5051,7 +5051,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5514</v>
+        <v>5526</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Vasquez</t>
+          <t>Scalvini</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F145" t="n">
@@ -5083,7 +5083,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5526</v>
+        <v>5693</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -5092,12 +5092,12 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Scalvini</t>
+          <t>Kiwior</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="F146" t="n">
@@ -5115,7 +5115,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5693</v>
+        <v>5718</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -5124,12 +5124,12 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Kiwior</t>
+          <t>Viti</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="F147" t="n">
@@ -5147,7 +5147,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5718</v>
+        <v>5851</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Viti</t>
+          <t>Doig</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="F148" t="n">
@@ -5179,7 +5179,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5851</v>
+        <v>45</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -5188,19 +5188,19 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Doig</t>
+          <t>Ferrari A.</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G149" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5211,7 +5211,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -5220,12 +5220,12 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Ferrari A.</t>
+          <t>Radovanovic</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="F150" t="n">
@@ -5243,7 +5243,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>118</v>
+        <v>244</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Radovanovic</t>
+          <t>Ghiglione</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="F151" t="n">
@@ -5275,7 +5275,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>244</v>
+        <v>294</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -5284,12 +5284,12 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Ghiglione</t>
+          <t>Rugani</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F152" t="n">
@@ -5307,7 +5307,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -5316,12 +5316,12 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Rugani</t>
+          <t>Patric</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="F153" t="n">
@@ -5339,7 +5339,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>327</v>
+        <v>393</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -5348,12 +5348,12 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Patric</t>
+          <t>Luperto</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="F154" t="n">
@@ -5371,7 +5371,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>393</v>
+        <v>630</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -5380,12 +5380,12 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Luperto</t>
+          <t>Sala</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="F155" t="n">
@@ -5403,7 +5403,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -5412,12 +5412,12 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Sala</t>
+          <t>Chiriches</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="F156" t="n">
@@ -5435,7 +5435,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>640</v>
+        <v>1868</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -5444,12 +5444,12 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Chiriches</t>
+          <t>Murru</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="F157" t="n">
@@ -5467,7 +5467,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>1868</v>
+        <v>2318</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -5476,12 +5476,12 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Murru</t>
+          <t>Rogerio</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="F158" t="n">
@@ -5499,7 +5499,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>2318</v>
+        <v>2633</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -5508,12 +5508,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Rogerio</t>
+          <t>Kjaer</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="F159" t="n">
@@ -5531,7 +5531,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>2633</v>
+        <v>2728</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -5540,12 +5540,12 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Kjaer</t>
+          <t>Pellegrini Lu.</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F160" t="n">
@@ -5563,7 +5563,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>2728</v>
+        <v>2739</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -5572,12 +5572,12 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Pellegrini Lu.</t>
+          <t>Reca</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="F161" t="n">
@@ -5595,7 +5595,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>2739</v>
+        <v>2758</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -5604,12 +5604,12 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Reca</t>
+          <t>Gunter</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="F162" t="n">
@@ -5627,7 +5627,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>2758</v>
+        <v>2865</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -5636,12 +5636,12 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Gunter</t>
+          <t>Aina</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="F163" t="n">
@@ -5659,7 +5659,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>2865</v>
+        <v>2869</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Aina</t>
+          <t>Djidji</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -5691,7 +5691,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>2869</v>
+        <v>4426</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -5700,12 +5700,12 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Djidji</t>
+          <t>Toljan</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="F165" t="n">
@@ -5723,7 +5723,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4426</v>
+        <v>4432</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Toljan</t>
+          <t>Okoli</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F166" t="n">
@@ -5755,7 +5755,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4432</v>
+        <v>4521</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -5764,12 +5764,12 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Okoli</t>
+          <t>Muldur</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="F167" t="n">
@@ -5787,7 +5787,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4521</v>
+        <v>4891</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -5796,12 +5796,12 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Muldur</t>
+          <t>Soumaoro</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F168" t="n">
@@ -5819,7 +5819,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4891</v>
+        <v>4925</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -5828,12 +5828,12 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Soumaoro</t>
+          <t>Carboni</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="F169" t="n">
@@ -5851,7 +5851,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4925</v>
+        <v>4979</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -5860,12 +5860,12 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Carboni</t>
+          <t>Ayhan</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="F170" t="n">
@@ -5883,7 +5883,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4979</v>
+        <v>5691</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -5892,12 +5892,12 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Ayhan</t>
+          <t>Zima</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="F171" t="n">
@@ -5915,7 +5915,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5691</v>
+        <v>5831</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Zima</t>
+          <t>Gatti</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F172" t="n">
@@ -5947,7 +5947,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5831</v>
+        <v>5847</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -5956,12 +5956,12 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Gatti</t>
+          <t>Bijol</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F173" t="n">
@@ -5979,7 +5979,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5847</v>
+        <v>5862</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -5988,12 +5988,12 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Bijol</t>
+          <t>Valeri</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="F174" t="n">
@@ -6011,7 +6011,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5862</v>
+        <v>84</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -6020,19 +6020,19 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Valeri</t>
+          <t>Marrone</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G175" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6043,7 +6043,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -6052,12 +6052,12 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Marrone</t>
+          <t>Dermaku</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="F176" t="n">
@@ -6075,7 +6075,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>139</v>
+        <v>612</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -6084,12 +6084,12 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Dermaku</t>
+          <t>Bianchetti</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="F177" t="n">
@@ -6107,7 +6107,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>612</v>
+        <v>660</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Bianchetti</t>
+          <t>Gyomber</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="F178" t="n">
@@ -6139,7 +6139,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>660</v>
+        <v>729</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -6148,12 +6148,12 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Gyomber</t>
+          <t>Pereira P.</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="F179" t="n">
@@ -6171,7 +6171,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>729</v>
+        <v>2141</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -6180,12 +6180,12 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Pereira P.</t>
+          <t>Depaoli</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="F180" t="n">
@@ -6203,7 +6203,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>2141</v>
+        <v>2192</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -6212,12 +6212,12 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Depaoli</t>
+          <t>Bonifazi</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F181" t="n">
@@ -6235,7 +6235,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>2192</v>
+        <v>2446</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -6244,12 +6244,12 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Bonifazi</t>
+          <t>Donati</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="F182" t="n">
@@ -6267,7 +6267,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>2446</v>
+        <v>2653</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -6276,12 +6276,12 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Donati</t>
+          <t>Lykogiannis</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F183" t="n">
@@ -6299,7 +6299,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>2653</v>
+        <v>2724</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -6308,12 +6308,12 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Lykogiannis</t>
+          <t>Buongiorno</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="F184" t="n">
@@ -6331,7 +6331,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>2724</v>
+        <v>4329</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -6340,12 +6340,12 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Buongiorno</t>
+          <t>Nikolaou</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="F185" t="n">
@@ -6363,7 +6363,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>4329</v>
+        <v>4493</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -6372,12 +6372,12 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Nikolaou</t>
+          <t>Dawidowicz</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="F186" t="n">
@@ -6395,7 +6395,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>4493</v>
+        <v>4495</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Dawidowicz</t>
+          <t>Kumbulla</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F187" t="n">
@@ -6427,7 +6427,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>4495</v>
+        <v>4758</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -6436,12 +6436,12 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Kumbulla</t>
+          <t>Benkovic</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F188" t="n">
@@ -6459,7 +6459,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>4758</v>
+        <v>4897</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -6468,12 +6468,12 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Benkovic</t>
+          <t>Pirola</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F189" t="n">
@@ -6491,7 +6491,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>4897</v>
+        <v>4946</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -6500,12 +6500,12 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Pirola</t>
+          <t>Frabotta</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="F190" t="n">
@@ -6523,7 +6523,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>4946</v>
+        <v>4958</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -6532,12 +6532,12 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Frabotta</t>
+          <t>Caldirola</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="F191" t="n">
@@ -6555,7 +6555,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>4958</v>
+        <v>5323</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -6564,12 +6564,12 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Caldirola</t>
+          <t>Martinez Quarta</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F192" t="n">
@@ -6587,7 +6587,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>5323</v>
+        <v>5739</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -6596,12 +6596,12 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Martinez Quarta</t>
+          <t>De Winter</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="F193" t="n">
@@ -6619,7 +6619,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>5739</v>
+        <v>5833</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -6628,12 +6628,12 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>De Winter</t>
+          <t>Gila</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="F194" t="n">
@@ -6651,7 +6651,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>5833</v>
+        <v>5867</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -6660,12 +6660,12 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Gila</t>
+          <t>Gendrey</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="F195" t="n">
@@ -6683,7 +6683,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>5867</v>
+        <v>11</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -6692,19 +6692,19 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Gendrey</t>
+          <t>Conti</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G196" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -6715,7 +6715,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>11</v>
+        <v>226</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -6724,12 +6724,12 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Conti</t>
+          <t>Izzo</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="F197" t="n">
@@ -6747,7 +6747,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -6756,12 +6756,12 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Izzo</t>
+          <t>Murillo</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="F198" t="n">
@@ -6779,7 +6779,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>259</v>
+        <v>1898</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Murillo</t>
+          <t>Sampirisi</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="F199" t="n">
@@ -6811,7 +6811,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>1898</v>
+        <v>2174</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -6820,12 +6820,12 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Sampirisi</t>
+          <t>Venuti</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F200" t="n">
@@ -6843,7 +6843,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>2174</v>
+        <v>2312</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -6852,12 +6852,12 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Venuti</t>
+          <t>Hristov</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="F201" t="n">
@@ -6875,7 +6875,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>2312</v>
+        <v>2745</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Hristov</t>
+          <t>Calabresi</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="F202" t="n">
@@ -6907,7 +6907,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>2745</v>
+        <v>2746</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -6916,12 +6916,12 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Calabresi</t>
+          <t>Dijks</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F203" t="n">
@@ -6939,7 +6939,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>2746</v>
+        <v>2769</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -6948,12 +6948,12 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Dijks</t>
+          <t>Magnani</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="F204" t="n">
@@ -6971,7 +6971,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>2769</v>
+        <v>2847</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Magnani</t>
+          <t>Sernicola</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="F205" t="n">
@@ -7003,7 +7003,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>2847</v>
+        <v>4960</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -7012,12 +7012,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Sernicola</t>
+          <t>Tuia</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -7035,7 +7035,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>4960</v>
+        <v>4983</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -7044,12 +7044,12 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Tuia</t>
+          <t>Ferrer</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="F207" t="n">
@@ -7067,7 +7067,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>4983</v>
+        <v>5010</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Ferrer</t>
+          <t>Ismajli</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="F208" t="n">
@@ -7099,7 +7099,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>5010</v>
+        <v>5480</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Ismajli</t>
+          <t>Ebuehi</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -7131,7 +7131,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>5480</v>
+        <v>5509</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -7140,12 +7140,12 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Ebuehi</t>
+          <t>Vina</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F210" t="n">
@@ -7163,7 +7163,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>5509</v>
+        <v>5527</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Vina</t>
+          <t>Zanoli</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F211" t="n">
@@ -7195,7 +7195,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>5527</v>
+        <v>5747</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -7204,12 +7204,12 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Zanoli</t>
+          <t>Ruan</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="F212" t="n">
@@ -7227,7 +7227,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>5747</v>
+        <v>5804</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -7236,12 +7236,12 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Ruan</t>
+          <t>Cacace</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="F213" t="n">
@@ -7259,7 +7259,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>5804</v>
+        <v>5838</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Cacace</t>
+          <t>Birindelli</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="F214" t="n">
@@ -7291,7 +7291,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>5838</v>
+        <v>5860</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -7300,12 +7300,12 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Birindelli</t>
+          <t>Ravanelli</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="F215" t="n">
@@ -7323,7 +7323,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>5860</v>
+        <v>5891</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Ravanelli</t>
+          <t>Quagliata</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -7355,7 +7355,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>5891</v>
+        <v>329</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -7364,19 +7364,19 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Quagliata</t>
+          <t>Radu</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -7387,7 +7387,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>329</v>
+        <v>360</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
@@ -7396,12 +7396,12 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Radu</t>
+          <t>Paletta</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="F218" t="n">
@@ -7419,7 +7419,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>360</v>
+        <v>454</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -7428,12 +7428,12 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Paletta</t>
+          <t>Capradossi</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="F219" t="n">
@@ -7451,7 +7451,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>454</v>
+        <v>2252</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Capradossi</t>
+          <t>Marchizza</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="F220" t="n">
@@ -7483,7 +7483,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>2252</v>
+        <v>4375</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -7492,12 +7492,12 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Marchizza</t>
+          <t>Terzic</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F221" t="n">
@@ -7515,7 +7515,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>4375</v>
+        <v>4433</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
@@ -7524,12 +7524,12 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Terzic</t>
+          <t>Zortea</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F222" t="n">
@@ -7547,7 +7547,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>4433</v>
+        <v>4502</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Zortea</t>
+          <t>Gallo</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="F223" t="n">
@@ -7579,7 +7579,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>4502</v>
+        <v>4945</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -7588,12 +7588,12 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Gallo</t>
+          <t>Calafiori</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F224" t="n">
@@ -7611,7 +7611,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>4945</v>
+        <v>5017</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
@@ -7620,12 +7620,12 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Calafiori</t>
+          <t>Ballo-Toure'</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="F225" t="n">
@@ -7643,7 +7643,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>5017</v>
+        <v>5316</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Ballo-Toure'</t>
+          <t>Amione</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="F226" t="n">
@@ -7675,7 +7675,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>5316</v>
+        <v>5678</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
@@ -7684,12 +7684,12 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Amione</t>
+          <t>Holm</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="F227" t="n">
@@ -7707,7 +7707,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>5678</v>
+        <v>5764</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
@@ -7716,12 +7716,12 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Holm</t>
+          <t>Coppola D.</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="F228" t="n">
@@ -7739,7 +7739,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>5764</v>
+        <v>5793</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Coppola D.</t>
+          <t>Kasius</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F229" t="n">
@@ -7771,7 +7771,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>5793</v>
+        <v>5835</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
@@ -7780,12 +7780,12 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Kasius</t>
+          <t>Baschirotto</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="F230" t="n">
@@ -7803,7 +7803,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>5835</v>
+        <v>5848</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -7812,12 +7812,12 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Baschirotto</t>
+          <t>Ebosele</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -7835,7 +7835,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>5848</v>
+        <v>50</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -7844,19 +7844,19 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Ebosele</t>
+          <t>Mbaye</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -7867,7 +7867,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -7876,12 +7876,12 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Mbaye</t>
+          <t>Tonelli</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="F233" t="n">
@@ -7899,7 +7899,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>144</v>
+        <v>2064</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -7908,12 +7908,12 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Tonelli</t>
+          <t>Veseli</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="F234" t="n">
@@ -7931,7 +7931,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>2064</v>
+        <v>2208</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Veseli</t>
+          <t>Jaroszynski</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -7963,7 +7963,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>2208</v>
+        <v>2453</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
@@ -7972,12 +7972,12 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Jaroszynski</t>
+          <t>Nastasic</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F236" t="n">
@@ -7995,7 +7995,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>2453</v>
+        <v>2668</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
@@ -8004,12 +8004,12 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Nastasic</t>
+          <t>Retsos</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="F237" t="n">
@@ -8027,7 +8027,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>2668</v>
+        <v>2737</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
@@ -8036,12 +8036,12 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Retsos</t>
+          <t>Bettella</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="F238" t="n">
@@ -8059,7 +8059,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>2737</v>
+        <v>4401</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
@@ -8068,12 +8068,12 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Bettella</t>
+          <t>Gabbia</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="F239" t="n">
@@ -8091,7 +8091,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>4401</v>
+        <v>4985</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
@@ -8100,12 +8100,12 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Gabbia</t>
+          <t>Vignali</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="F240" t="n">
@@ -8123,7 +8123,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>4985</v>
+        <v>5354</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -8132,12 +8132,12 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Vignali</t>
+          <t>Ruggeri</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F241" t="n">
@@ -8155,7 +8155,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>5354</v>
+        <v>5399</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
@@ -8164,12 +8164,12 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Ruggeri</t>
+          <t>Antov</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="F242" t="n">
@@ -8187,7 +8187,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>5399</v>
+        <v>5424</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -8196,12 +8196,12 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Antov</t>
+          <t>Amey</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F243" t="n">
@@ -8219,7 +8219,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>5424</v>
+        <v>5461</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
@@ -8228,12 +8228,12 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Amey</t>
+          <t>Kamenovic</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="F244" t="n">
@@ -8251,7 +8251,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>5461</v>
+        <v>5503</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
@@ -8260,12 +8260,12 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Kamenovic</t>
+          <t>Kechrida</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="F245" t="n">
@@ -8283,7 +8283,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>5503</v>
+        <v>5740</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
@@ -8292,12 +8292,12 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Kechrida</t>
+          <t>Zanotti</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F246" t="n">
@@ -8315,7 +8315,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>5740</v>
+        <v>5820</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Zanotti</t>
+          <t>Bertola</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="F247" t="n">
@@ -8347,7 +8347,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>5820</v>
+        <v>5846</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
@@ -8356,12 +8356,12 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Bertola</t>
+          <t>Bayeye</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="F248" t="n">
@@ -8379,7 +8379,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>5846</v>
+        <v>5849</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
@@ -8388,12 +8388,12 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Bayeye</t>
+          <t>Buta</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F249" t="n">
@@ -8411,7 +8411,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>5849</v>
+        <v>5859</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
@@ -8420,12 +8420,12 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Buta</t>
+          <t>Ndiaye</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="F250" t="n">
@@ -8443,7 +8443,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>5859</v>
+        <v>5861</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
@@ -8452,7 +8452,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Ndiaye</t>
+          <t>Fiordaliso</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -8475,28 +8475,28 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>5861</v>
+        <v>645</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Fiordaliso</t>
+          <t>Milinkovic-Savic</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="G252" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -8507,7 +8507,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>645</v>
+        <v>530</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -8516,19 +8516,19 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Milinkovic-Savic</t>
+          <t>Pellegrini Lo.</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G253" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -8539,7 +8539,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>530</v>
+        <v>2002</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -8548,19 +8548,19 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Pellegrini Lo.</t>
+          <t>Chiesa</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G254" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -8571,7 +8571,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>2002</v>
+        <v>303</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Chiesa</t>
+          <t>Pogba</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -8589,10 +8589,10 @@
         </is>
       </c>
       <c r="F255" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G255" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -8603,7 +8603,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>303</v>
+        <v>2077</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
@@ -8612,19 +8612,19 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Pogba</t>
+          <t>Pasalic</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G256" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -8635,7 +8635,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>2077</v>
+        <v>2172</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
@@ -8644,12 +8644,12 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Pasalic</t>
+          <t>Barak</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="F257" t="n">
@@ -8667,7 +8667,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>2172</v>
+        <v>4427</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
@@ -8676,12 +8676,12 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Barak</t>
+          <t>Malinovskyi</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F258" t="n">
@@ -8699,7 +8699,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>4427</v>
+        <v>632</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
@@ -8708,19 +8708,19 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Malinovskyi</t>
+          <t>Zaccagni</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G259" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -8731,7 +8731,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>632</v>
+        <v>1870</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
@@ -8740,12 +8740,12 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Zaccagni</t>
+          <t>Barella</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F260" t="n">
@@ -8763,7 +8763,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>1870</v>
+        <v>152</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -8772,19 +8772,19 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Barella</t>
+          <t>Zielinski</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G261" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -8795,7 +8795,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>152</v>
+        <v>335</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Zielinski</t>
+          <t>Felipe Anderson</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="F262" t="n">
@@ -8827,7 +8827,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>335</v>
+        <v>2194</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -8836,12 +8836,12 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Felipe Anderson</t>
+          <t>Calhanoglu</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F263" t="n">
@@ -8859,7 +8859,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>2194</v>
+        <v>2766</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
@@ -8868,12 +8868,12 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Calhanoglu</t>
+          <t>Zaniolo</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F264" t="n">
@@ -8891,7 +8891,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>2766</v>
+        <v>2775</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Zaniolo</t>
+          <t>Ruiz</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F265" t="n">
@@ -8923,7 +8923,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>2775</v>
+        <v>302</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
@@ -8932,19 +8932,19 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Ruiz</t>
+          <t>Pereyra</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G266" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -8955,7 +8955,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>302</v>
+        <v>2085</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -8964,12 +8964,12 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Pereyra</t>
+          <t>Luis Alberto</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="F267" t="n">
@@ -8987,7 +8987,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>2085</v>
+        <v>2857</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Luis Alberto</t>
+          <t>Traore' Hj.</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="F268" t="n">
@@ -9019,7 +9019,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>2857</v>
+        <v>5451</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
@@ -9028,12 +9028,12 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Traore' Hj.</t>
+          <t>Bajrami</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="F269" t="n">
@@ -9051,7 +9051,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>5451</v>
+        <v>5839</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
@@ -9060,12 +9060,12 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Bajrami</t>
+          <t>Kvaratskhelia</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F270" t="n">
@@ -9083,7 +9083,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>5839</v>
+        <v>332</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
@@ -9092,19 +9092,19 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Kvaratskhelia</t>
+          <t>Candreva</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G271" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -9115,7 +9115,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>332</v>
+        <v>2529</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
@@ -9124,19 +9124,19 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Candreva</t>
+          <t>Mkhitaryan</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G272" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -9147,7 +9147,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>2529</v>
+        <v>2848</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
@@ -9156,12 +9156,12 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Mkhitaryan</t>
+          <t>Frattesi</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="F273" t="n">
@@ -9179,7 +9179,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>2848</v>
+        <v>4449</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Frattesi</t>
+          <t>Tonali</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="F274" t="n">
@@ -9211,7 +9211,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>4449</v>
+        <v>265</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
@@ -9220,19 +9220,19 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Tonali</t>
+          <t>Brozovic</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G275" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>265</v>
+        <v>536</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
@@ -9252,12 +9252,12 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Brozovic</t>
+          <t>Politano</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F276" t="n">
@@ -9275,7 +9275,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>536</v>
+        <v>697</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Politano</t>
+          <t>Cuadrado</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F277" t="n">
@@ -9307,7 +9307,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>697</v>
+        <v>2167</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
@@ -9316,12 +9316,12 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Cuadrado</t>
+          <t>Orsolini</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F278" t="n">
@@ -9339,7 +9339,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>2167</v>
+        <v>5685</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
@@ -9348,12 +9348,12 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Orsolini</t>
+          <t>Koopmeiners</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F279" t="n">
@@ -9371,7 +9371,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>5685</v>
+        <v>5788</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Koopmeiners</t>
+          <t>Sabiri</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="F280" t="n">
@@ -9403,7 +9403,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>5788</v>
+        <v>367</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
@@ -9412,19 +9412,19 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Sabiri</t>
+          <t>Bonaventura</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F281" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G281" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -9435,7 +9435,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>367</v>
+        <v>827</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
@@ -9444,12 +9444,12 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Bonaventura</t>
+          <t>Locatelli</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F282" t="n">
@@ -9467,7 +9467,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>827</v>
+        <v>4658</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Locatelli</t>
+          <t>Ikone'</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F283" t="n">
@@ -9499,7 +9499,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>4658</v>
+        <v>4890</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
@@ -9508,12 +9508,12 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Ikone'</t>
+          <t>Tameze</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="F284" t="n">
@@ -9531,7 +9531,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>4890</v>
+        <v>4970</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
@@ -9540,12 +9540,12 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Tameze</t>
+          <t>Messias</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="F285" t="n">
@@ -9563,7 +9563,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>4970</v>
+        <v>236</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
@@ -9572,19 +9572,19 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Messias</t>
+          <t>Lazovic</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="F286" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G286" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -9595,7 +9595,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>236</v>
+        <v>376</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
@@ -9604,12 +9604,12 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Lazovic</t>
+          <t>Verdi</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="F287" t="n">
@@ -9627,7 +9627,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>376</v>
+        <v>2009</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Verdi</t>
+          <t>Lukic</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -9659,7 +9659,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>2009</v>
+        <v>2741</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
@@ -9668,12 +9668,12 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Lukic</t>
+          <t>Pessina</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="F289" t="n">
@@ -9691,7 +9691,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>2741</v>
+        <v>4486</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
@@ -9700,12 +9700,12 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Pessina</t>
+          <t>Strefezza</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="F290" t="n">
@@ -9723,7 +9723,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>4486</v>
+        <v>4978</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
@@ -9732,12 +9732,12 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Strefezza</t>
+          <t>Damsgaard</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="F291" t="n">
@@ -9755,7 +9755,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>4978</v>
+        <v>5007</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
@@ -9764,12 +9764,12 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Damsgaard</t>
+          <t>Ilic</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="F292" t="n">
@@ -9787,7 +9787,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>5007</v>
+        <v>5792</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
@@ -9796,12 +9796,12 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Ilic</t>
+          <t>Ederson D.s.</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F293" t="n">
@@ -9819,7 +9819,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>5792</v>
+        <v>1978</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
@@ -9828,19 +9828,19 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Ederson D.s.</t>
+          <t>Sensi</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G294" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -9851,7 +9851,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>1978</v>
+        <v>2625</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Sensi</t>
+          <t>Soriano</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F295" t="n">
@@ -9883,7 +9883,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>2625</v>
+        <v>150</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
@@ -9892,19 +9892,19 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Soriano</t>
+          <t>Saponara</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G296" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -9915,7 +9915,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>150</v>
+        <v>2215</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
@@ -9924,12 +9924,12 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Saponara</t>
+          <t>Veretout</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F297" t="n">
@@ -9947,7 +9947,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>2215</v>
+        <v>4220</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
@@ -9956,12 +9956,12 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Veretout</t>
+          <t>Zambo Anguissa</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F298" t="n">
@@ -9979,7 +9979,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>4220</v>
+        <v>4287</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
@@ -9988,7 +9988,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Zambo Anguissa</t>
+          <t>Lobotka</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
@@ -10011,7 +10011,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>4287</v>
+        <v>4479</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Lobotka</t>
+          <t>Elmas</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
@@ -10043,7 +10043,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>4479</v>
+        <v>4825</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
@@ -10052,12 +10052,12 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Elmas</t>
+          <t>Diaz B.</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="F301" t="n">
@@ -10075,7 +10075,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>4825</v>
+        <v>4973</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
@@ -10084,12 +10084,12 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Diaz B.</t>
+          <t>Mckennie</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F302" t="n">
@@ -10107,7 +10107,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>4973</v>
+        <v>2432</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Mckennie</t>
+          <t>Zakaria</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
@@ -10125,10 +10125,10 @@
         </is>
       </c>
       <c r="F303" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G303" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -10139,7 +10139,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>2432</v>
+        <v>2818</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Zakaria</t>
+          <t>Bennacer</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="F304" t="n">
@@ -10171,7 +10171,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>2818</v>
+        <v>4988</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
@@ -10180,12 +10180,12 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Bennacer</t>
+          <t>Maggiore</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="F305" t="n">
@@ -10203,7 +10203,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>4988</v>
+        <v>4992</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Maggiore</t>
+          <t>Gyasi</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
@@ -10235,7 +10235,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>4992</v>
+        <v>5834</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Gyasi</t>
+          <t>Marcos Antonio</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="F307" t="n">
@@ -10267,7 +10267,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>5834</v>
+        <v>779</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
@@ -10276,19 +10276,19 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Marcos Antonio</t>
+          <t>Cristante</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G308" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -10299,7 +10299,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>779</v>
+        <v>788</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
@@ -10308,12 +10308,12 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Cristante</t>
+          <t>Freuler</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F309" t="n">
@@ -10331,7 +10331,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Freuler</t>
+          <t>El Shaarawy</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F310" t="n">
@@ -10363,7 +10363,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>795</v>
+        <v>1933</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
@@ -10372,12 +10372,12 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>El Shaarawy</t>
+          <t>Mandragora</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F311" t="n">
@@ -10395,7 +10395,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>1933</v>
+        <v>4377</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Mandragora</t>
+          <t>Castrovilli</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -10427,7 +10427,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>4377</v>
+        <v>4515</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
@@ -10436,12 +10436,12 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Castrovilli</t>
+          <t>Agudelo</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="F313" t="n">
@@ -10459,7 +10459,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>4515</v>
+        <v>4681</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
@@ -10468,12 +10468,12 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Agudelo</t>
+          <t>Lopez M.</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="F314" t="n">
@@ -10491,7 +10491,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>4681</v>
+        <v>5298</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
@@ -10500,12 +10500,12 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Lopez M.</t>
+          <t>Pobega</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="F315" t="n">
@@ -10523,7 +10523,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>5298</v>
+        <v>5844</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Pobega</t>
+          <t>Thorstvedt</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="F316" t="n">
@@ -10555,7 +10555,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>5844</v>
+        <v>333</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
@@ -10564,19 +10564,19 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Thorstvedt</t>
+          <t>Cataldi</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G317" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -10587,7 +10587,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>333</v>
+        <v>801</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
@@ -10596,12 +10596,12 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Cataldi</t>
+          <t>Gagliardini</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F318" t="n">
@@ -10619,7 +10619,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>801</v>
+        <v>2839</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
@@ -10628,12 +10628,12 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Gagliardini</t>
+          <t>Sottil</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F319" t="n">
@@ -10651,7 +10651,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>2839</v>
+        <v>4376</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Sottil</t>
+          <t>Zurkowski</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
@@ -10683,7 +10683,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>4376</v>
+        <v>4393</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
@@ -10692,12 +10692,12 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Zurkowski</t>
+          <t>Schouten</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F321" t="n">
@@ -10715,7 +10715,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>4393</v>
+        <v>4498</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Schouten</t>
+          <t>Henderson L.</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="F322" t="n">
@@ -10747,7 +10747,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>4498</v>
+        <v>4522</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
@@ -10756,12 +10756,12 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Henderson L.</t>
+          <t>Amrabat</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F323" t="n">
@@ -10779,7 +10779,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>4522</v>
+        <v>4869</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
@@ -10788,12 +10788,12 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Amrabat</t>
+          <t>Dominguez</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F324" t="n">
@@ -10811,7 +10811,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>4869</v>
+        <v>4892</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Dominguez</t>
+          <t>Saelemaekers</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="F325" t="n">
@@ -10843,7 +10843,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>4892</v>
+        <v>5001</v>
       </c>
       <c r="C326" t="inlineStr">
         <is>
@@ -10852,12 +10852,12 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Saelemaekers</t>
+          <t>Miranchuk</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F326" t="n">
@@ -10875,7 +10875,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>5001</v>
+        <v>5119</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
@@ -10884,12 +10884,12 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Miranchuk</t>
+          <t>Samardzic</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F327" t="n">
@@ -10907,7 +10907,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>5119</v>
+        <v>5329</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Samardzic</t>
+          <t>Makengo</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
@@ -10939,7 +10939,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>5329</v>
+        <v>5719</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
@@ -10948,12 +10948,12 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Makengo</t>
+          <t>Asllani</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F329" t="n">
@@ -10971,7 +10971,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>5719</v>
+        <v>22</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
@@ -10980,19 +10980,19 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Asllani</t>
+          <t>De Roon</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G330" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -11003,7 +11003,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
@@ -11012,12 +11012,12 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>De Roon</t>
+          <t>Krunic</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="F331" t="n">
@@ -11035,7 +11035,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>148</v>
+        <v>526</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
@@ -11044,12 +11044,12 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Krunic</t>
+          <t>Duncan</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F332" t="n">
@@ -11067,7 +11067,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>526</v>
+        <v>600</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
@@ -11076,12 +11076,12 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Duncan</t>
+          <t>Verre</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="F333" t="n">
@@ -11099,7 +11099,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>600</v>
+        <v>1901</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
@@ -11108,12 +11108,12 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Verre</t>
+          <t>Barberis</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="F334" t="n">
@@ -11131,7 +11131,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>1901</v>
+        <v>2144</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
@@ -11140,12 +11140,12 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Barberis</t>
+          <t>Coulibaly M.</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="F335" t="n">
@@ -11163,7 +11163,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>2144</v>
+        <v>2379</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
@@ -11172,12 +11172,12 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Coulibaly M.</t>
+          <t>Rabiot</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F336" t="n">
@@ -11195,7 +11195,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>2379</v>
+        <v>2391</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Rabiot</t>
+          <t>Ekdal</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="F337" t="n">
@@ -11227,7 +11227,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>2391</v>
+        <v>2392</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
@@ -11236,12 +11236,12 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Ekdal</t>
+          <t>Walace</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F338" t="n">
@@ -11259,7 +11259,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>2392</v>
+        <v>2528</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
@@ -11268,12 +11268,12 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Walace</t>
+          <t>Matic</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F339" t="n">
@@ -11291,7 +11291,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>2528</v>
+        <v>2778</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Matic</t>
+          <t>Stulac</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="F340" t="n">
@@ -11323,7 +11323,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>2778</v>
+        <v>4965</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
@@ -11332,7 +11332,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Stulac</t>
+          <t>Marin</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
@@ -11355,7 +11355,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>4965</v>
+        <v>5063</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
@@ -11364,12 +11364,12 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Marin</t>
+          <t>Radonjic</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="F342" t="n">
@@ -11387,7 +11387,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>5063</v>
+        <v>5397</v>
       </c>
       <c r="C343" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Radonjic</t>
+          <t>Kovalenko</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F343" t="n">
@@ -11419,7 +11419,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>5397</v>
+        <v>5422</v>
       </c>
       <c r="C344" t="inlineStr">
         <is>
@@ -11428,12 +11428,12 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Kovalenko</t>
+          <t>Zalewski</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F344" t="n">
@@ -11451,7 +11451,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>5422</v>
+        <v>5453</v>
       </c>
       <c r="C345" t="inlineStr">
         <is>
@@ -11460,12 +11460,12 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Zalewski</t>
+          <t>Ricci S.</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="F345" t="n">
@@ -11483,7 +11483,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>5453</v>
+        <v>5798</v>
       </c>
       <c r="C346" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Ricci S.</t>
+          <t>Bohinen</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="F346" t="n">
@@ -11515,7 +11515,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>5798</v>
+        <v>5829</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
@@ -11524,12 +11524,12 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Bohinen</t>
+          <t>Milanese</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="F347" t="n">
@@ -11547,7 +11547,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>5829</v>
+        <v>5875</v>
       </c>
       <c r="C348" t="inlineStr">
         <is>
@@ -11556,12 +11556,12 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Milanese</t>
+          <t>Adli</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="F348" t="n">
@@ -11579,7 +11579,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>5875</v>
+        <v>238</v>
       </c>
       <c r="C349" t="inlineStr">
         <is>
@@ -11588,19 +11588,19 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Adli</t>
+          <t>Rincon</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G349" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H349" t="n">
         <v>0</v>
@@ -11611,7 +11611,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>238</v>
+        <v>2011</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
@@ -11620,12 +11620,12 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Rincon</t>
+          <t>Miguel Veloso</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="F350" t="n">
@@ -11643,7 +11643,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>2011</v>
+        <v>2253</v>
       </c>
       <c r="C351" t="inlineStr">
         <is>
@@ -11652,12 +11652,12 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Miguel Veloso</t>
+          <t>Bandinelli</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="F351" t="n">
@@ -11675,7 +11675,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>2253</v>
+        <v>4178</v>
       </c>
       <c r="C352" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Bandinelli</t>
+          <t>Ascacibar</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="F352" t="n">
@@ -11707,7 +11707,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>4178</v>
+        <v>5287</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
@@ -11716,12 +11716,12 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Ascacibar</t>
+          <t>Arslan</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F353" t="n">
@@ -11739,7 +11739,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>5287</v>
+        <v>5457</v>
       </c>
       <c r="C354" t="inlineStr">
         <is>
@@ -11748,12 +11748,12 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Arslan</t>
+          <t>Maleh</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F354" t="n">
@@ -11771,7 +11771,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>5457</v>
+        <v>5504</v>
       </c>
       <c r="C355" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Maleh</t>
+          <t>Coulibaly L.</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="F355" t="n">
@@ -11803,7 +11803,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>5504</v>
+        <v>5511</v>
       </c>
       <c r="C356" t="inlineStr">
         <is>
@@ -11812,12 +11812,12 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Coulibaly L.</t>
+          <t>Matheus Henrique</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="F356" t="n">
@@ -11835,7 +11835,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>5511</v>
+        <v>5850</v>
       </c>
       <c r="C357" t="inlineStr">
         <is>
@@ -11844,12 +11844,12 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Matheus Henrique</t>
+          <t>Lovric</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F357" t="n">
@@ -11867,7 +11867,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>5850</v>
+        <v>5870</v>
       </c>
       <c r="C358" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Lovric</t>
+          <t>Hjulmand</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="F358" t="n">
@@ -11899,7 +11899,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>5870</v>
+        <v>2008</v>
       </c>
       <c r="C359" t="inlineStr">
         <is>
@@ -11908,19 +11908,19 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Hjulmand</t>
+          <t>Linetty</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G359" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H359" t="n">
         <v>0</v>
@@ -11931,7 +11931,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>2008</v>
+        <v>2274</v>
       </c>
       <c r="C360" t="inlineStr">
         <is>
@@ -11940,12 +11940,12 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Linetty</t>
+          <t>Valoti</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="F360" t="n">
@@ -11963,7 +11963,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>2274</v>
+        <v>4285</v>
       </c>
       <c r="C361" t="inlineStr">
         <is>
@@ -11972,12 +11972,12 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Valoti</t>
+          <t>Arthur</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F361" t="n">
@@ -11995,7 +11995,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>4285</v>
+        <v>5674</v>
       </c>
       <c r="C362" t="inlineStr">
         <is>
@@ -12004,12 +12004,12 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Arthur</t>
+          <t>Basic</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="F362" t="n">
@@ -12027,7 +12027,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>5674</v>
+        <v>5858</v>
       </c>
       <c r="C363" t="inlineStr">
         <is>
@@ -12036,12 +12036,12 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Basic</t>
+          <t>Ferguson</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F363" t="n">
@@ -12059,7 +12059,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>5858</v>
+        <v>5886</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Ferguson</t>
+          <t>Bistrovic</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="F364" t="n">
@@ -12091,7 +12091,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>5886</v>
+        <v>666</v>
       </c>
       <c r="C365" t="inlineStr">
         <is>
@@ -12100,19 +12100,19 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Bistrovic</t>
+          <t>Machin</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G365" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H365" t="n">
         <v>0</v>
@@ -12123,7 +12123,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>666</v>
+        <v>694</v>
       </c>
       <c r="C366" t="inlineStr">
         <is>
@@ -12132,12 +12132,12 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Machin</t>
+          <t>Baez</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="F366" t="n">
@@ -12155,7 +12155,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>694</v>
+        <v>1851</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>Baez</t>
+          <t>Molina S.</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="F367" t="n">
@@ -12187,7 +12187,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>1851</v>
+        <v>2825</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
@@ -12196,12 +12196,12 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>Molina S.</t>
+          <t>Bourabia</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="F368" t="n">
@@ -12219,7 +12219,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>2825</v>
+        <v>2855</v>
       </c>
       <c r="C369" t="inlineStr">
         <is>
@@ -12228,12 +12228,12 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>Bourabia</t>
+          <t>Vieira</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="F369" t="n">
@@ -12251,7 +12251,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>2855</v>
+        <v>4364</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
@@ -12260,12 +12260,12 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>Vieira</t>
+          <t>Gaetano</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F370" t="n">
@@ -12283,7 +12283,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>4364</v>
+        <v>4475</v>
       </c>
       <c r="C371" t="inlineStr">
         <is>
@@ -12292,12 +12292,12 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>Gaetano</t>
+          <t>Majer</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="F371" t="n">
@@ -12315,7 +12315,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>4475</v>
+        <v>4725</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
@@ -12324,12 +12324,12 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>Majer</t>
+          <t>Demme</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F372" t="n">
@@ -12347,7 +12347,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>4725</v>
+        <v>4884</v>
       </c>
       <c r="C373" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>Demme</t>
+          <t>Carles Perez</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F373" t="n">
@@ -12379,7 +12379,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>4884</v>
+        <v>5784</v>
       </c>
       <c r="C374" t="inlineStr">
         <is>
@@ -12388,12 +12388,12 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>Carles Perez</t>
+          <t>Aebischer</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F374" t="n">
@@ -12411,7 +12411,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>5784</v>
+        <v>5857</v>
       </c>
       <c r="C375" t="inlineStr">
         <is>
@@ -12420,12 +12420,12 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>Aebischer</t>
+          <t>Pickel</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="F375" t="n">
@@ -12443,7 +12443,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>5857</v>
+        <v>5863</v>
       </c>
       <c r="C376" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>Pickel</t>
+          <t>Castagnetti</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
@@ -12475,7 +12475,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>5863</v>
+        <v>5878</v>
       </c>
       <c r="C377" t="inlineStr">
         <is>
@@ -12484,12 +12484,12 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>Castagnetti</t>
+          <t>Colpani</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="F377" t="n">
@@ -12507,7 +12507,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>5878</v>
+        <v>434</v>
       </c>
       <c r="C378" t="inlineStr">
         <is>
@@ -12516,19 +12516,19 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>Colpani</t>
+          <t>Jajalo</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F378" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G378" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H378" t="n">
         <v>0</v>
@@ -12539,7 +12539,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>434</v>
+        <v>557</v>
       </c>
       <c r="C379" t="inlineStr">
         <is>
@@ -12548,12 +12548,12 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>Jajalo</t>
+          <t>Benassi</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F379" t="n">
@@ -12571,7 +12571,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>557</v>
+        <v>1976</v>
       </c>
       <c r="C380" t="inlineStr">
         <is>
@@ -12580,12 +12580,12 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>Benassi</t>
+          <t>Mazzitelli</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="F380" t="n">
@@ -12603,7 +12603,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>1976</v>
+        <v>2154</v>
       </c>
       <c r="C381" t="inlineStr">
         <is>
@@ -12612,12 +12612,12 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>Mazzitelli</t>
+          <t>Vignato</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F381" t="n">
@@ -12635,7 +12635,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>2154</v>
+        <v>2161</v>
       </c>
       <c r="C382" t="inlineStr">
         <is>
@@ -12644,12 +12644,12 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>Vignato</t>
+          <t>Haas</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="F382" t="n">
@@ -12667,7 +12667,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>2161</v>
+        <v>2334</v>
       </c>
       <c r="C383" t="inlineStr">
         <is>
@@ -12676,12 +12676,12 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>Haas</t>
+          <t>Leris</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="F383" t="n">
@@ -12699,7 +12699,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>2334</v>
+        <v>4459</v>
       </c>
       <c r="C384" t="inlineStr">
         <is>
@@ -12708,12 +12708,12 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>Leris</t>
+          <t>Rovella</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F384" t="n">
@@ -12731,7 +12731,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>4459</v>
+        <v>4465</v>
       </c>
       <c r="C385" t="inlineStr">
         <is>
@@ -12740,7 +12740,7 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>Rovella</t>
+          <t>Fagioli</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
@@ -12763,7 +12763,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>4465</v>
+        <v>4921</v>
       </c>
       <c r="C386" t="inlineStr">
         <is>
@@ -12772,12 +12772,12 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>Fagioli</t>
+          <t>Askildsen</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="F386" t="n">
@@ -12795,7 +12795,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>4921</v>
+        <v>5499</v>
       </c>
       <c r="C387" t="inlineStr">
         <is>
@@ -12804,12 +12804,12 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Askildsen</t>
+          <t>Hongla</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="F387" t="n">
@@ -12827,7 +12827,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>5499</v>
+        <v>5517</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
@@ -12836,12 +12836,12 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>Hongla</t>
+          <t>Yepes</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="F388" t="n">
@@ -12859,7 +12859,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>5517</v>
+        <v>5880</v>
       </c>
       <c r="C389" t="inlineStr">
         <is>
@@ -12868,12 +12868,12 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>Yepes</t>
+          <t>Ciurria</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="F389" t="n">
@@ -12891,7 +12891,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>5880</v>
+        <v>58</v>
       </c>
       <c r="C390" t="inlineStr">
         <is>
@@ -12900,19 +12900,19 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>Ciurria</t>
+          <t>Diawara</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F390" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G390" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H390" t="n">
         <v>0</v>
@@ -12923,7 +12923,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>58</v>
+        <v>2639</v>
       </c>
       <c r="C391" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>Diawara</t>
+          <t>Bakayoko</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="F391" t="n">
@@ -12955,7 +12955,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>2639</v>
+        <v>2742</v>
       </c>
       <c r="C392" t="inlineStr">
         <is>
@@ -12964,12 +12964,12 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>Bakayoko</t>
+          <t>Valzania</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="F392" t="n">
@@ -12987,7 +12987,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>2742</v>
+        <v>4411</v>
       </c>
       <c r="C393" t="inlineStr">
         <is>
@@ -12996,12 +12996,12 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>Valzania</t>
+          <t>Agoume</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F393" t="n">
@@ -13019,7 +13019,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>4411</v>
+        <v>4501</v>
       </c>
       <c r="C394" t="inlineStr">
         <is>
@@ -13028,12 +13028,12 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>Agoume</t>
+          <t>Obiang</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="F394" t="n">
@@ -13051,7 +13051,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>4501</v>
+        <v>4896</v>
       </c>
       <c r="C395" t="inlineStr">
         <is>
@@ -13060,12 +13060,12 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>Obiang</t>
+          <t>Maldini</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="F395" t="n">
@@ -13083,7 +13083,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>4896</v>
+        <v>5444</v>
       </c>
       <c r="C396" t="inlineStr">
         <is>
@@ -13092,12 +13092,12 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>Maldini</t>
+          <t>Cortinovis</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="F396" t="n">
@@ -13115,7 +13115,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>5444</v>
+        <v>5476</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
@@ -13124,12 +13124,12 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>Cortinovis</t>
+          <t>Kornvig</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="F397" t="n">
@@ -13147,7 +13147,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>5476</v>
+        <v>5510</v>
       </c>
       <c r="C398" t="inlineStr">
         <is>
@@ -13156,12 +13156,12 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>Kornvig</t>
+          <t>Romero L.</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="F398" t="n">
@@ -13179,7 +13179,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>5510</v>
+        <v>5688</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
@@ -13188,12 +13188,12 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>Romero L.</t>
+          <t>Harroui</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="F399" t="n">
@@ -13211,7 +13211,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>5688</v>
+        <v>5776</v>
       </c>
       <c r="C400" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>Harroui</t>
+          <t>Ceide</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
@@ -13243,7 +13243,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>5776</v>
+        <v>5813</v>
       </c>
       <c r="C401" t="inlineStr">
         <is>
@@ -13252,12 +13252,12 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>Ceide</t>
+          <t>Miretti</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F401" t="n">
@@ -13275,7 +13275,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>5813</v>
+        <v>5869</v>
       </c>
       <c r="C402" t="inlineStr">
         <is>
@@ -13284,12 +13284,12 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>Miretti</t>
+          <t>Blin</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="F402" t="n">
@@ -13307,7 +13307,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>5869</v>
+        <v>5884</v>
       </c>
       <c r="C403" t="inlineStr">
         <is>
@@ -13316,12 +13316,12 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>Blin</t>
+          <t>Ranocchia F.</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="F403" t="n">
@@ -13339,7 +13339,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>5884</v>
+        <v>21</v>
       </c>
       <c r="C404" t="inlineStr">
         <is>
@@ -13348,7 +13348,7 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Ranocchia F.</t>
+          <t>D'alessandro</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
@@ -13357,10 +13357,10 @@
         </is>
       </c>
       <c r="F404" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G404" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -13371,7 +13371,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="C405" t="inlineStr">
         <is>
@@ -13380,12 +13380,12 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>D'alessandro</t>
+          <t>Capezzi</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="F405" t="n">
@@ -13403,7 +13403,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>173</v>
+        <v>2804</v>
       </c>
       <c r="C406" t="inlineStr">
         <is>
@@ -13412,12 +13412,12 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Capezzi</t>
+          <t>Scozzarella</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="F406" t="n">
@@ -13435,7 +13435,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>2804</v>
+        <v>2835</v>
       </c>
       <c r="C407" t="inlineStr">
         <is>
@@ -13444,12 +13444,12 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Scozzarella</t>
+          <t>Kingsley</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F407" t="n">
@@ -13467,7 +13467,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>2835</v>
+        <v>4987</v>
       </c>
       <c r="C408" t="inlineStr">
         <is>
@@ -13476,12 +13476,12 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Kingsley</t>
+          <t>Bartolomei</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="F408" t="n">
@@ -13499,7 +13499,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>4987</v>
+        <v>5312</v>
       </c>
       <c r="C409" t="inlineStr">
         <is>
@@ -13508,12 +13508,12 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Bartolomei</t>
+          <t>Leo' Sena</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="F409" t="n">
@@ -13531,7 +13531,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>5312</v>
+        <v>5420</v>
       </c>
       <c r="C410" t="inlineStr">
         <is>
@@ -13540,12 +13540,12 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Leo' Sena</t>
+          <t>Darboe</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F410" t="n">
@@ -13563,7 +13563,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>5420</v>
+        <v>5423</v>
       </c>
       <c r="C411" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Darboe</t>
+          <t>Bove</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
@@ -13595,7 +13595,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>5423</v>
+        <v>5468</v>
       </c>
       <c r="C412" t="inlineStr">
         <is>
@@ -13604,12 +13604,12 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Bove</t>
+          <t>Cavion</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="F412" t="n">
@@ -13627,7 +13627,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>5468</v>
+        <v>5519</v>
       </c>
       <c r="C413" t="inlineStr">
         <is>
@@ -13636,12 +13636,12 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Cavion</t>
+          <t>Sher</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="F413" t="n">
@@ -13659,7 +13659,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>5519</v>
+        <v>5722</v>
       </c>
       <c r="C414" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Sher</t>
+          <t>Nguiamba</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
@@ -13691,7 +13691,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>5722</v>
+        <v>5735</v>
       </c>
       <c r="C415" t="inlineStr">
         <is>
@@ -13700,12 +13700,12 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Nguiamba</t>
+          <t>Volpato</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F415" t="n">
@@ -13723,7 +13723,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>5735</v>
+        <v>5789</v>
       </c>
       <c r="C416" t="inlineStr">
         <is>
@@ -13732,12 +13732,12 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Volpato</t>
+          <t>Praszelik</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="F416" t="n">
@@ -13755,7 +13755,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>5789</v>
+        <v>5823</v>
       </c>
       <c r="C417" t="inlineStr">
         <is>
@@ -13764,12 +13764,12 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Praszelik</t>
+          <t>Baldanzi</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="F417" t="n">
@@ -13787,7 +13787,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>5823</v>
+        <v>5855</v>
       </c>
       <c r="C418" t="inlineStr">
         <is>
@@ -13796,12 +13796,12 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Baldanzi</t>
+          <t>Tenkorang</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="F418" t="n">
@@ -13819,7 +13819,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>5855</v>
+        <v>5868</v>
       </c>
       <c r="C419" t="inlineStr">
         <is>
@@ -13828,12 +13828,12 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Tenkorang</t>
+          <t>Bjorkengren</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="F419" t="n">
@@ -13851,7 +13851,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>5868</v>
+        <v>5872</v>
       </c>
       <c r="C420" t="inlineStr">
         <is>
@@ -13860,7 +13860,7 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Bjorkengren</t>
+          <t>Helgason</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
@@ -13883,7 +13883,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>5872</v>
+        <v>5873</v>
       </c>
       <c r="C421" t="inlineStr">
         <is>
@@ -13892,7 +13892,7 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Helgason</t>
+          <t>Listkowski</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
@@ -13915,7 +13915,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>5873</v>
+        <v>5879</v>
       </c>
       <c r="C422" t="inlineStr">
         <is>
@@ -13924,12 +13924,12 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Listkowski</t>
+          <t>Vignato S.</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="F422" t="n">
@@ -13947,7 +13947,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>5879</v>
+        <v>5888</v>
       </c>
       <c r="C423" t="inlineStr">
         <is>
@@ -13956,12 +13956,12 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Vignato S.</t>
+          <t>Casadei</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F423" t="n">
@@ -13979,28 +13979,28 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>5888</v>
+        <v>785</v>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Casadei</t>
+          <t>Immobile</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="G424" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="H424" t="n">
         <v>0</v>
@@ -14011,7 +14011,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>785</v>
+        <v>2841</v>
       </c>
       <c r="C425" t="inlineStr">
         <is>
@@ -14020,19 +14020,19 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Immobile</t>
+          <t>Vlahovic</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G425" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H425" t="n">
         <v>0</v>
@@ -14043,7 +14043,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>2841</v>
+        <v>2531</v>
       </c>
       <c r="C426" t="inlineStr">
         <is>
@@ -14052,19 +14052,19 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Vlahovic</t>
+          <t>Lukaku</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G426" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H426" t="n">
         <v>0</v>
@@ -14075,7 +14075,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>2531</v>
+        <v>531</v>
       </c>
       <c r="C427" t="inlineStr">
         <is>
@@ -14084,19 +14084,19 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Lukaku</t>
+          <t>Berardi</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G427" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H427" t="n">
         <v>0</v>
@@ -14107,7 +14107,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>531</v>
+        <v>4661</v>
       </c>
       <c r="C428" t="inlineStr">
         <is>
@@ -14116,12 +14116,12 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>Berardi</t>
+          <t>Osimhen</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F428" t="n">
@@ -14139,7 +14139,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>4661</v>
+        <v>2764</v>
       </c>
       <c r="C429" t="inlineStr">
         <is>
@@ -14148,19 +14148,19 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>Osimhen</t>
+          <t>Martinez L.</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F429" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G429" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H429" t="n">
         <v>0</v>
@@ -14171,7 +14171,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>2764</v>
+        <v>2544</v>
       </c>
       <c r="C430" t="inlineStr">
         <is>
@@ -14180,19 +14180,19 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>Martinez L.</t>
+          <t>Abraham</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F430" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G430" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H430" t="n">
         <v>0</v>
@@ -14203,7 +14203,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>2544</v>
+        <v>608</v>
       </c>
       <c r="C431" t="inlineStr">
         <is>
@@ -14212,19 +14212,19 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>Abraham</t>
+          <t>Zapata D.</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F431" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G431" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H431" t="n">
         <v>0</v>
@@ -14235,7 +14235,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>608</v>
+        <v>4510</v>
       </c>
       <c r="C432" t="inlineStr">
         <is>
@@ -14244,19 +14244,19 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>Zapata D.</t>
+          <t>Rafael Leao</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="F432" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G432" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H432" t="n">
         <v>0</v>
@@ -14267,7 +14267,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>4510</v>
+        <v>309</v>
       </c>
       <c r="C433" t="inlineStr">
         <is>
@@ -14276,19 +14276,19 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>Rafael Leao</t>
+          <t>Dybala</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F433" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G433" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H433" t="n">
         <v>0</v>
@@ -14299,7 +14299,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>309</v>
+        <v>4200</v>
       </c>
       <c r="C434" t="inlineStr">
         <is>
@@ -14308,19 +14308,19 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>Dybala</t>
+          <t>Giroud</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G434" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H434" t="n">
         <v>0</v>
@@ -14331,7 +14331,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>4200</v>
+        <v>4268</v>
       </c>
       <c r="C435" t="inlineStr">
         <is>
@@ -14340,19 +14340,19 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>Giroud</t>
+          <t>Arnautovic</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G435" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H435" t="n">
         <v>0</v>
@@ -14363,7 +14363,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>4268</v>
+        <v>507</v>
       </c>
       <c r="C436" t="inlineStr">
         <is>
@@ -14372,19 +14372,19 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>Arnautovic</t>
+          <t>Muriel</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F436" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G436" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H436" t="n">
         <v>0</v>
@@ -14395,7 +14395,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>507</v>
+        <v>1958</v>
       </c>
       <c r="C437" t="inlineStr">
         <is>
@@ -14404,12 +14404,12 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>Muriel</t>
+          <t>Caprari</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="F437" t="n">
@@ -14427,7 +14427,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>1958</v>
+        <v>2382</v>
       </c>
       <c r="C438" t="inlineStr">
         <is>
@@ -14436,12 +14436,12 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>Caprari</t>
+          <t>Di Maria</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F438" t="n">
@@ -14459,7 +14459,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>2382</v>
+        <v>2061</v>
       </c>
       <c r="C439" t="inlineStr">
         <is>
@@ -14468,19 +14468,19 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>Di Maria</t>
+          <t>Simeone</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="F439" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G439" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H439" t="n">
         <v>0</v>
@@ -14491,7 +14491,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>2061</v>
+        <v>2119</v>
       </c>
       <c r="C440" t="inlineStr">
         <is>
@@ -14500,19 +14500,19 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>Simeone</t>
+          <t>Deulofeu</t>
         </is>
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F440" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G440" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H440" t="n">
         <v>0</v>
@@ -14523,7 +14523,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>2119</v>
+        <v>2438</v>
       </c>
       <c r="C441" t="inlineStr">
         <is>
@@ -14532,12 +14532,12 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>Deulofeu</t>
+          <t>Jovic</t>
         </is>
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F441" t="n">
@@ -14555,7 +14555,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>2438</v>
+        <v>5694</v>
       </c>
       <c r="C442" t="inlineStr">
         <is>
@@ -14564,12 +14564,12 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>Jovic</t>
+          <t>Beto</t>
         </is>
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F442" t="n">
@@ -14587,7 +14587,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>5694</v>
+        <v>2038</v>
       </c>
       <c r="C443" t="inlineStr">
         <is>
@@ -14596,19 +14596,19 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>Beto</t>
+          <t>Pinamonti</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F443" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G443" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H443" t="n">
         <v>0</v>
@@ -14619,7 +14619,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>2038</v>
+        <v>479</v>
       </c>
       <c r="C444" t="inlineStr">
         <is>
@@ -14628,19 +14628,19 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>Pinamonti</t>
+          <t>Sanabria</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="F444" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G444" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H444" t="n">
         <v>0</v>
@@ -14651,7 +14651,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>479</v>
+        <v>2819</v>
       </c>
       <c r="C445" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>Sanabria</t>
+          <t>Caputo</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="F445" t="n">
@@ -14683,7 +14683,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>2819</v>
+        <v>4179</v>
       </c>
       <c r="C446" t="inlineStr">
         <is>
@@ -14692,19 +14692,19 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>Caputo</t>
+          <t>Gonzalez N.</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F446" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G446" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H446" t="n">
         <v>0</v>
@@ -14715,7 +14715,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>4179</v>
+        <v>4371</v>
       </c>
       <c r="C447" t="inlineStr">
         <is>
@@ -14724,12 +14724,12 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>Gonzalez N.</t>
+          <t>Raspadori</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="F447" t="n">
@@ -14747,7 +14747,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>4371</v>
+        <v>2489</v>
       </c>
       <c r="C448" t="inlineStr">
         <is>
@@ -14756,19 +14756,19 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>Raspadori</t>
+          <t>Pedro</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="F448" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G448" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H448" t="n">
         <v>0</v>
@@ -14779,7 +14779,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>2489</v>
+        <v>5786</v>
       </c>
       <c r="C449" t="inlineStr">
         <is>
@@ -14788,12 +14788,12 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>Pedro</t>
+          <t>Cabral</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F449" t="n">
@@ -14811,7 +14811,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>5786</v>
+        <v>215</v>
       </c>
       <c r="C450" t="inlineStr">
         <is>
@@ -14820,19 +14820,19 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>Cabral</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="F450" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G450" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H450" t="n">
         <v>0</v>
@@ -14843,7 +14843,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>215</v>
+        <v>472</v>
       </c>
       <c r="C451" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Destro</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="F451" t="n">
@@ -14875,7 +14875,7 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>472</v>
+        <v>4517</v>
       </c>
       <c r="C452" t="inlineStr">
         <is>
@@ -14884,12 +14884,12 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>Destro</t>
+          <t>Lozano</t>
         </is>
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F452" t="n">
@@ -14907,7 +14907,7 @@
         <v>451</v>
       </c>
       <c r="B453" t="n">
-        <v>4517</v>
+        <v>5529</v>
       </c>
       <c r="C453" t="inlineStr">
         <is>
@@ -14916,12 +14916,12 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>Lozano</t>
+          <t>Henry</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="F453" t="n">
@@ -14939,7 +14939,7 @@
         <v>452</v>
       </c>
       <c r="B454" t="n">
-        <v>5529</v>
+        <v>2466</v>
       </c>
       <c r="C454" t="inlineStr">
         <is>
@@ -14948,19 +14948,19 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>Henry</t>
+          <t>Origi</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="F454" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G454" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H454" t="n">
         <v>0</v>
@@ -14971,7 +14971,7 @@
         <v>453</v>
       </c>
       <c r="B455" t="n">
-        <v>2466</v>
+        <v>2719</v>
       </c>
       <c r="C455" t="inlineStr">
         <is>
@@ -14980,12 +14980,12 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>Origi</t>
+          <t>Barrow</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F455" t="n">
@@ -15003,7 +15003,7 @@
         <v>454</v>
       </c>
       <c r="B456" t="n">
-        <v>2719</v>
+        <v>495</v>
       </c>
       <c r="C456" t="inlineStr">
         <is>
@@ -15012,19 +15012,19 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>Barrow</t>
+          <t>Correa</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F456" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G456" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H456" t="n">
         <v>0</v>
@@ -15035,7 +15035,7 @@
         <v>455</v>
       </c>
       <c r="B457" t="n">
-        <v>495</v>
+        <v>647</v>
       </c>
       <c r="C457" t="inlineStr">
         <is>
@@ -15044,7 +15044,7 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>Correa</t>
+          <t>Dzeko</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
@@ -15067,7 +15067,7 @@
         <v>456</v>
       </c>
       <c r="B458" t="n">
-        <v>647</v>
+        <v>383</v>
       </c>
       <c r="C458" t="inlineStr">
         <is>
@@ -15076,19 +15076,19 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>Dzeko</t>
+          <t>Petagna</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F458" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G458" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H458" t="n">
         <v>0</v>
@@ -15099,7 +15099,7 @@
         <v>457</v>
       </c>
       <c r="B459" t="n">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="C459" t="inlineStr">
         <is>
@@ -15108,12 +15108,12 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>Petagna</t>
+          <t>Gabbiadini</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="F459" t="n">
@@ -15131,7 +15131,7 @@
         <v>458</v>
       </c>
       <c r="B460" t="n">
-        <v>407</v>
+        <v>2097</v>
       </c>
       <c r="C460" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>Gabbiadini</t>
+          <t>Kean</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F460" t="n">
@@ -15163,7 +15163,7 @@
         <v>459</v>
       </c>
       <c r="B461" t="n">
-        <v>2097</v>
+        <v>186</v>
       </c>
       <c r="C461" t="inlineStr">
         <is>
@@ -15172,19 +15172,19 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>Kean</t>
+          <t>Rebic</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="F461" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G461" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H461" t="n">
         <v>0</v>
@@ -15195,7 +15195,7 @@
         <v>460</v>
       </c>
       <c r="B462" t="n">
-        <v>186</v>
+        <v>505</v>
       </c>
       <c r="C462" t="inlineStr">
         <is>
@@ -15204,12 +15204,12 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>Rebic</t>
+          <t>Bonazzoli</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="F462" t="n">
@@ -15227,7 +15227,7 @@
         <v>461</v>
       </c>
       <c r="B463" t="n">
-        <v>505</v>
+        <v>5336</v>
       </c>
       <c r="C463" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>Bonazzoli</t>
+          <t>Nzola</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="F463" t="n">
@@ -15259,7 +15259,7 @@
         <v>462</v>
       </c>
       <c r="B464" t="n">
-        <v>5336</v>
+        <v>5460</v>
       </c>
       <c r="C464" t="inlineStr">
         <is>
@@ -15268,12 +15268,12 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>Nzola</t>
+          <t>Satriano</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="F464" t="n">
@@ -15291,7 +15291,7 @@
         <v>463</v>
       </c>
       <c r="B465" t="n">
-        <v>5460</v>
+        <v>5845</v>
       </c>
       <c r="C465" t="inlineStr">
         <is>
@@ -15300,12 +15300,12 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>Satriano</t>
+          <t>Alvarez A.</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="F465" t="n">
@@ -15323,7 +15323,7 @@
         <v>464</v>
       </c>
       <c r="B466" t="n">
-        <v>5845</v>
+        <v>2530</v>
       </c>
       <c r="C466" t="inlineStr">
         <is>
@@ -15332,19 +15332,19 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>Alvarez A.</t>
+          <t>Ibrahimovic</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="F466" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G466" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H466" t="n">
         <v>0</v>
@@ -15355,7 +15355,7 @@
         <v>465</v>
       </c>
       <c r="B467" t="n">
-        <v>2530</v>
+        <v>2832</v>
       </c>
       <c r="C467" t="inlineStr">
         <is>
@@ -15364,12 +15364,12 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>Ibrahimovic</t>
+          <t>Boga</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F467" t="n">
@@ -15387,7 +15387,7 @@
         <v>466</v>
       </c>
       <c r="B468" t="n">
-        <v>2832</v>
+        <v>4359</v>
       </c>
       <c r="C468" t="inlineStr">
         <is>
@@ -15396,12 +15396,12 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>Boga</t>
+          <t>Piccoli</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="F468" t="n">
@@ -15419,7 +15419,7 @@
         <v>467</v>
       </c>
       <c r="B469" t="n">
-        <v>4359</v>
+        <v>5515</v>
       </c>
       <c r="C469" t="inlineStr">
         <is>
@@ -15428,12 +15428,12 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>Piccoli</t>
+          <t>Okereke</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="F469" t="n">
